--- a/Sistem Pendukung Keputusan/minggu10/Fany Ervansyah-MOORA-Jobsheet.xlsx
+++ b/Sistem Pendukung Keputusan/minggu10/Fany Ervansyah-MOORA-Jobsheet.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7695" activeTab="1"/>
+    <workbookView windowWidth="20490" windowHeight="7770" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Jobsheet_No1" sheetId="2" r:id="rId1"/>
@@ -348,9 +348,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0.000"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
@@ -384,9 +384,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -394,29 +400,6 @@
     <font>
       <b/>
       <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -431,43 +414,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -476,16 +422,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -500,15 +438,77 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -535,19 +535,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -559,13 +577,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,13 +589,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -601,25 +631,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -631,19 +673,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -655,7 +697,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,48 +710,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -747,20 +747,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -780,6 +777,24 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -791,21 +806,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -825,15 +825,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -843,127 +843,127 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2798,8 +2798,8 @@
   <sheetPr/>
   <dimension ref="A2:P48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15"/>
@@ -3061,11 +3061,11 @@
         <v>69</v>
       </c>
       <c r="M16">
-        <f t="shared" ref="M16:P16" si="0">POWER(M8,2)</f>
+        <f>POWER(M8,2)</f>
         <v>9</v>
       </c>
       <c r="N16">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="M16:P16" si="0">POWER(N8,2)</f>
         <v>9</v>
       </c>
       <c r="O16">
@@ -3193,19 +3193,19 @@
         <v>92</v>
       </c>
       <c r="M21">
-        <f t="shared" ref="M21:P21" si="5">SQRT(SUM(M16:M20))</f>
+        <f>SQRT(SUM(M16:M20))</f>
         <v>5.65685424949238</v>
       </c>
       <c r="N21">
-        <f t="shared" si="5"/>
+        <f>SQRT(SUM(N16:N20))</f>
         <v>5.65685424949238</v>
       </c>
       <c r="O21">
-        <f t="shared" si="5"/>
+        <f>SQRT(SUM(O16:O20))</f>
         <v>3.3166247903554</v>
       </c>
       <c r="P21">
-        <f t="shared" si="5"/>
+        <f>SQRT(SUM(P16:P20))</f>
         <v>442605.919526615</v>
       </c>
     </row>
@@ -3231,19 +3231,19 @@
         <v>69</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26:P26" si="6">M8/M$21</f>
+        <f>M8/M$21</f>
         <v>0.530330085889911</v>
       </c>
       <c r="N26">
-        <f t="shared" si="6"/>
+        <f>N8/N$21</f>
         <v>0.530330085889911</v>
       </c>
       <c r="O26">
-        <f t="shared" si="6"/>
+        <f>O8/O$21</f>
         <v>0.301511344577764</v>
       </c>
       <c r="P26">
-        <f t="shared" si="6"/>
+        <f>P8/P$21</f>
         <v>0.451869238924568</v>
       </c>
     </row>
@@ -3252,19 +3252,19 @@
         <v>70</v>
       </c>
       <c r="M27">
-        <f t="shared" ref="M27:P27" si="7">M9/M$21</f>
+        <f>M9/M$21</f>
         <v>0.353553390593274</v>
       </c>
       <c r="N27">
-        <f t="shared" si="7"/>
+        <f>N9/N$21</f>
         <v>0.530330085889911</v>
       </c>
       <c r="O27">
-        <f t="shared" si="7"/>
+        <f>O9/O$21</f>
         <v>0.603022689155527</v>
       </c>
       <c r="P27">
-        <f t="shared" si="7"/>
+        <f>P9/P$21</f>
         <v>0.677803858386852</v>
       </c>
     </row>
@@ -3273,19 +3273,19 @@
         <v>74</v>
       </c>
       <c r="M28">
-        <f t="shared" ref="M28:P28" si="8">M10/M$21</f>
+        <f>M10/M$21</f>
         <v>0.530330085889911</v>
       </c>
       <c r="N28">
-        <f t="shared" si="8"/>
+        <f>N10/N$21</f>
         <v>0.176776695296637</v>
       </c>
       <c r="O28">
-        <f t="shared" si="8"/>
+        <f>O10/O$21</f>
         <v>0.301511344577764</v>
       </c>
       <c r="P28">
-        <f t="shared" si="8"/>
+        <f>P10/P$21</f>
         <v>0.0677803858386852</v>
       </c>
     </row>
@@ -3294,19 +3294,19 @@
         <v>77</v>
       </c>
       <c r="M29">
-        <f t="shared" ref="M29:P29" si="9">M11/M$21</f>
+        <f>M11/M$21</f>
         <v>0.176776695296637</v>
       </c>
       <c r="N29">
-        <f t="shared" si="9"/>
+        <f>N11/N$21</f>
         <v>0.530330085889911</v>
       </c>
       <c r="O29">
-        <f t="shared" si="9"/>
+        <f>O11/O$21</f>
         <v>0.603022689155527</v>
       </c>
       <c r="P29">
-        <f t="shared" si="9"/>
+        <f>P11/P$21</f>
         <v>0.56483654865571</v>
       </c>
     </row>
@@ -3315,19 +3315,19 @@
         <v>80</v>
       </c>
       <c r="M30">
-        <f t="shared" ref="M30:P30" si="10">M12/M$21</f>
+        <f>M12/M$21</f>
         <v>0.530330085889911</v>
       </c>
       <c r="N30">
-        <f t="shared" si="10"/>
+        <f>N12/N$21</f>
         <v>0.353553390593274</v>
       </c>
       <c r="O30">
-        <f t="shared" si="10"/>
+        <f>O12/O$21</f>
         <v>0.301511344577764</v>
       </c>
       <c r="P30">
-        <f t="shared" si="10"/>
+        <f>P12/P$21</f>
         <v>0.112967309731142</v>
       </c>
     </row>
@@ -3357,15 +3357,15 @@
         <v>21.2132034355964</v>
       </c>
       <c r="N35">
-        <f t="shared" ref="N35:N39" si="11">N26*B$8</f>
+        <f t="shared" ref="N35:N39" si="5">N26*B$8</f>
         <v>10.6066017177982</v>
       </c>
       <c r="O35">
-        <f t="shared" ref="O35:O39" si="12">O26*C$8</f>
+        <f t="shared" ref="O35:O39" si="6">O26*C$8</f>
         <v>3.01511344577764</v>
       </c>
       <c r="P35">
-        <f t="shared" ref="P35:P39" si="13">P26*D$8</f>
+        <f t="shared" ref="P35:P39" si="7">P26*D$8</f>
         <v>13.556077167737</v>
       </c>
     </row>
@@ -3378,15 +3378,15 @@
         <v>14.1421356237309</v>
       </c>
       <c r="N36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>10.6066017177982</v>
       </c>
       <c r="O36">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>6.03022689155527</v>
       </c>
       <c r="P36">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>20.3341157516056</v>
       </c>
     </row>
@@ -3399,15 +3399,15 @@
         <v>21.2132034355964</v>
       </c>
       <c r="N37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>3.53553390593274</v>
       </c>
       <c r="O37">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>3.01511344577764</v>
       </c>
       <c r="P37">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>2.03341157516056</v>
       </c>
     </row>
@@ -3420,15 +3420,15 @@
         <v>7.07106781186547</v>
       </c>
       <c r="N38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>10.6066017177982</v>
       </c>
       <c r="O38">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>6.03022689155527</v>
       </c>
       <c r="P38">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>16.9450964596713</v>
       </c>
     </row>
@@ -3441,15 +3441,15 @@
         <v>21.2132034355964</v>
       </c>
       <c r="N39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="5"/>
         <v>7.07106781186547</v>
       </c>
       <c r="O39">
-        <f t="shared" si="12"/>
+        <f t="shared" si="6"/>
         <v>3.01511344577764</v>
       </c>
       <c r="P39">
-        <f t="shared" si="13"/>
+        <f t="shared" si="7"/>
         <v>3.38901929193426</v>
       </c>
     </row>
@@ -3480,11 +3480,11 @@
         <v>13.556077167737</v>
       </c>
       <c r="O44">
-        <f t="shared" ref="O44:O48" si="14">M44-N44</f>
+        <f t="shared" ref="O44:O48" si="8">M44-N44</f>
         <v>21.2788414314352</v>
       </c>
       <c r="P44">
-        <f t="shared" ref="P44:P48" si="15">RANK(O44,$O$44:$O$48,0)</f>
+        <f t="shared" ref="P44:P48" si="9">RANK(O44,$O$44:$O$48,0)</f>
         <v>3</v>
       </c>
     </row>
@@ -3501,11 +3501,11 @@
         <v>20.3341157516056</v>
       </c>
       <c r="O45">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>10.4448484814789</v>
       </c>
       <c r="P45">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>4</v>
       </c>
     </row>
@@ -3522,11 +3522,11 @@
         <v>2.03341157516056</v>
       </c>
       <c r="O46">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>25.7304392121462</v>
       </c>
       <c r="P46">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>2</v>
       </c>
     </row>
@@ -3543,11 +3543,11 @@
         <v>16.9450964596713</v>
       </c>
       <c r="O47">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>6.76279996154765</v>
       </c>
       <c r="P47">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>5</v>
       </c>
     </row>
@@ -3564,11 +3564,11 @@
         <v>3.38901929193426</v>
       </c>
       <c r="O48">
-        <f t="shared" si="14"/>
+        <f t="shared" si="8"/>
         <v>27.9103654013053</v>
       </c>
       <c r="P48">
-        <f t="shared" si="15"/>
+        <f t="shared" si="9"/>
         <v>1</v>
       </c>
     </row>
